--- a/Homework #1/CorporateBonds.xlsx
+++ b/Homework #1/CorporateBonds.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Docs\SMC\Teaching\Spring 2019\BUSAD 137\Assignments\Assignment 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trevorcardoza/Documents/GitHub/QuantitativeAnalysis/Homework #1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54770C1-FAF9-437C-AAE0-18E5826D94B1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963B359F-AD8C-2C40-9E04-EAA0163F04E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5520" yWindow="0" windowWidth="23260" windowHeight="19120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
   <si>
     <t>Company Ticker</t>
   </si>
@@ -92,13 +103,88 @@
   </si>
   <si>
     <t>T</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>Squard Years</t>
+  </si>
+  <si>
+    <t>X Variable 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -118,6 +204,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -127,7 +220,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -135,14 +228,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -158,6 +279,2345 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Years to Maturity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Years</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$C$2:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.76700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.748</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8050000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.069</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.7389999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.181</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.3659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.6989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.855</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.8610000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.452</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.1840000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.798</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.3650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.778</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.367</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.4139999999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.9489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.2030000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.6819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.0460000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.1630000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.03</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.8660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.8559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.0789999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.9130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.2040000000000006</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.13</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.1379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.93</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.9029999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$B$2:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>25.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>26.75</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>29.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-339E-C34F-AC79-421E64606B41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1847407312"/>
+        <c:axId val="1860111008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1847407312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1860111008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1860111008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1847407312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Years to Maturity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Squard Years</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$C$2:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.76700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.748</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8050000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.069</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.7389999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.181</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.3659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.6989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.855</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.8610000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.452</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.1840000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.798</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.3650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.778</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.367</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.4139999999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.9489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.2030000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.6819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.0460000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.1630000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.03</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.8660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.8559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.0789999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.9130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.2040000000000006</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.13</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.1379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.93</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.9029999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$D$2:$D$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.5625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.0625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.0625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.5625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.5625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>85.5625</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>85.5625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>90.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>95.0625</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>95.0625</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>95.0625</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>95.0625</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>105.0625</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>650.25</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>663.0625</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>715.5625</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>812.25</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>885.0625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-339E-C34F-AC79-421E64606B41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1847407312"/>
+        <c:axId val="1860111008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1847407312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1860111008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1860111008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1847407312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:srgbClr val="FF0000">
+          <a:alpha val="41000"/>
+        </a:srgbClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88D75921-3C6E-0143-BD6C-B2A2E35405C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF66A45A-8037-4144-BFC0-6700B9F9FEF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -480,17 +2940,424 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B3F25A-530E-364D-9C97-41E6F98C7AB8}">
+  <dimension ref="A1:R18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="J3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.61646136363210857</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.72577590157763949</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.38002461285115885</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.52675065931083542</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.36370947108408408</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.51429672929269954</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.2917622114440057</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1.1286008170088102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4">
+        <v>40</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>38.867447885241099</v>
+      </c>
+      <c r="D12" s="3">
+        <v>38.867447885241099</v>
+      </c>
+      <c r="E12" s="3">
+        <v>23.292755789476391</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2.2810852062589254E-5</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3">
+        <v>53.874020542187758</v>
+      </c>
+      <c r="M12" s="3">
+        <v>53.874020542187758</v>
+      </c>
+      <c r="N12" s="3">
+        <v>42.295938594785738</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1.1636319844072399E-7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="3">
+        <v>38</v>
+      </c>
+      <c r="C13" s="3">
+        <v>63.408685214758911</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.6686496109147082</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="3">
+        <v>38</v>
+      </c>
+      <c r="L13" s="3">
+        <v>48.402112557812252</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1.273739804152954</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="4">
+        <v>39</v>
+      </c>
+      <c r="C14" s="4">
+        <v>102.27613310000001</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="J14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="4">
+        <v>39</v>
+      </c>
+      <c r="L14" s="4">
+        <v>102.27613310000001</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="3">
+        <v>3.2637039476072172</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.24146836218818538</v>
+      </c>
+      <c r="D17" s="3">
+        <v>13.516072739432795</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4.2877462394009208E-16</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2.774876804424073</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3.7525310907903613</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2.774876804424073</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3.7525310907903613</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="3">
+        <v>2.4558718281958978</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0.28311772780300393</v>
+      </c>
+      <c r="M17" s="3">
+        <v>8.6743837881629133</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1.5211257887307232E-10</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1.8827299523314789</v>
+      </c>
+      <c r="P17" s="3">
+        <v>3.0290137040603167</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1.8827299523314789</v>
+      </c>
+      <c r="R17" s="3">
+        <v>3.0290137040603167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="4">
+        <v>3.9770632219216975E-3</v>
+      </c>
+      <c r="C18" s="4">
+        <v>8.2404714330016617E-4</v>
+      </c>
+      <c r="D18" s="4">
+        <v>4.8262569129167145</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2.2810852062589373E-5</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2.3088669942365101E-3</v>
+      </c>
+      <c r="G18" s="4">
+        <v>5.6452594496068844E-3</v>
+      </c>
+      <c r="H18" s="4">
+        <v>2.3088669942365101E-3</v>
+      </c>
+      <c r="I18" s="4">
+        <v>5.6452594496068844E-3</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.14727399065592811</v>
+      </c>
+      <c r="L18" s="4">
+        <v>2.264522924427494E-2</v>
+      </c>
+      <c r="M18" s="4">
+        <v>6.5035327780203955</v>
+      </c>
+      <c r="N18" s="4">
+        <v>1.16363198440725E-7</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0.10143112073336924</v>
+      </c>
+      <c r="P18" s="4">
+        <v>0.19311686057848698</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>0.10143112073336924</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0.19311686057848698</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -500,8 +3367,11 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -511,8 +3381,12 @@
       <c r="C2" s="1">
         <v>0.76700000000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <f>B2^2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -522,8 +3396,12 @@
       <c r="C3" s="1">
         <v>1.8160000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <f t="shared" ref="D3:D41" si="0">B3^2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -533,8 +3411,12 @@
       <c r="C4" s="1">
         <v>0.79700000000000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -544,8 +3426,12 @@
       <c r="C5" s="1">
         <v>1.3779999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>3.0625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -555,8 +3441,12 @@
       <c r="C6" s="1">
         <v>1.748</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>10.5625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -566,8 +3456,12 @@
       <c r="C7" s="1">
         <v>3.5579999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>14.0625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -577,8 +3471,12 @@
       <c r="C8" s="1">
         <v>4.4130000000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -588,8 +3486,12 @@
       <c r="C9" s="1">
         <v>2.31</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>18.0625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -599,8 +3501,12 @@
       <c r="C10" s="1">
         <v>3.3319999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>22.5625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -610,8 +3516,12 @@
       <c r="C11" s="1">
         <v>2.8050000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>22.5625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -621,8 +3531,12 @@
       <c r="C12" s="1">
         <v>2.069</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -632,8 +3546,12 @@
       <c r="C13" s="1">
         <v>4.7389999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -643,8 +3561,12 @@
       <c r="C14" s="1">
         <v>2.181</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -654,8 +3576,12 @@
       <c r="C15" s="1">
         <v>4.3659999999999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -665,8 +3591,12 @@
       <c r="C16" s="1">
         <v>3.6989999999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -676,8 +3606,12 @@
       <c r="C17" s="1">
         <v>1.855</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -687,8 +3621,12 @@
       <c r="C18" s="1">
         <v>2.8610000000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -698,8 +3636,12 @@
       <c r="C19" s="1">
         <v>3.452</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -709,8 +3651,12 @@
       <c r="C20" s="1">
         <v>4.1840000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -720,8 +3666,12 @@
       <c r="C21" s="1">
         <v>5.798</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>85.5625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -731,8 +3681,12 @@
       <c r="C22" s="1">
         <v>5.3650000000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>85.5625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -742,8 +3696,12 @@
       <c r="C23" s="1">
         <v>3.778</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>90.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -753,8 +3711,12 @@
       <c r="C24" s="1">
         <v>5.367</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>95.0625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -764,8 +3726,12 @@
       <c r="C25" s="1">
         <v>4.4139999999999997</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>95.0625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
@@ -775,8 +3741,12 @@
       <c r="C26" s="1">
         <v>4.9489999999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>95.0625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -786,8 +3756,12 @@
       <c r="C27" s="1">
         <v>4.2030000000000003</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>95.0625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
@@ -797,8 +3771,12 @@
       <c r="C28" s="1">
         <v>3.6819999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -808,8 +3786,12 @@
       <c r="C29" s="1">
         <v>3.27</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
@@ -819,8 +3801,12 @@
       <c r="C30" s="1">
         <v>6.0460000000000003</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
@@ -830,8 +3816,12 @@
       <c r="C31" s="1">
         <v>4.1630000000000003</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>19</v>
       </c>
@@ -841,8 +3831,12 @@
       <c r="C32" s="1">
         <v>4.03</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
@@ -852,8 +3846,12 @@
       <c r="C33" s="1">
         <v>3.8660000000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -863,8 +3861,12 @@
       <c r="C34" s="1">
         <v>3.8559999999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>105.0625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>22</v>
       </c>
@@ -874,8 +3876,12 @@
       <c r="C35" s="1">
         <v>4.0789999999999997</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -885,8 +3891,12 @@
       <c r="C36" s="1">
         <v>6.9130000000000003</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>650.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -896,8 +3906,12 @@
       <c r="C37" s="1">
         <v>8.2040000000000006</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>663.0625</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>3</v>
       </c>
@@ -907,8 +3921,12 @@
       <c r="C38" s="1">
         <v>5.13</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>676</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
@@ -918,8 +3936,12 @@
       <c r="C39" s="1">
         <v>5.1379999999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>715.5625</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>23</v>
       </c>
@@ -929,8 +3951,12 @@
       <c r="C40" s="1">
         <v>4.93</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>812.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
@@ -939,10 +3965,15 @@
       </c>
       <c r="C41" s="1">
         <v>5.9029999999999996</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>885.0625</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>